--- a/va_facility_data_2025-02-20/Northampton County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northampton%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Northampton County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northampton%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4e6001676cba4283a506c325b3b7052d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R834b1b9fb2114e34a9d8c5bc18783492"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R42af8a3c7608440aade1ab00d7cf91e0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc638eb5e9bbd4d94a7802c7d5dae89bf"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf99c3e002a434ee6886285c5efb030af"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd16609d2bba44dafb527eb721e11335e"/>
   </x:sheets>
 </x:workbook>
 </file>
